--- a/Figure4/Wobblesignificance.xlsx
+++ b/Figure4/Wobblesignificance.xlsx
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="C11">
-        <v>0.0230497289491106</v>
+        <v>0.02063776964779426</v>
       </c>
       <c r="D11">
-        <v>0.02754684145804487</v>
+        <v>0.01534118358011527</v>
       </c>
     </row>
     <row r="12">
@@ -571,10 +571,10 @@
         </is>
       </c>
       <c r="C12">
-        <v>0.8681943733159021</v>
+        <v>0.7972666123533192</v>
       </c>
       <c r="D12">
-        <v>0.5044655080026412</v>
+        <v>0.3165336406680199</v>
       </c>
     </row>
     <row r="13">
@@ -589,10 +589,10 @@
         </is>
       </c>
       <c r="C13">
-        <v>0.8025270425725</v>
+        <v>0.8022734286144348</v>
       </c>
       <c r="D13">
-        <v>0.004991634974517156</v>
+        <v>0.006964198245263398</v>
       </c>
     </row>
   </sheetData>
